--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-beta</t>
+    <t>0.1.1-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-04T18:59:45-06:00</t>
+    <t>2023-01-05T09:18:04-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,7 +276,10 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>\-</t>
+    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
+  </si>
+  <si>
+    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>Event</t>
@@ -677,7 +680,7 @@
     <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
   </si>
   <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -914,7 +917,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {$this is DateTime implies $this.toString().length() &gt;= 10}</t>
+us-core-1:Datetime must be at least to day. {Observation.effectiveDateTime.exists() implies Observation.effectiveDateTime.toString().length() &gt;= 8}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -2109,7 +2112,7 @@
         <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2174,16 +2177,16 @@
         <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>83</v>
@@ -2192,15 +2195,15 @@
         <v>83</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2211,7 +2214,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>83</v>
@@ -2220,19 +2223,19 @@
         <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2282,13 +2285,13 @@
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>83</v>
@@ -2320,10 +2323,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2334,7 +2337,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>83</v>
@@ -2343,16 +2346,16 @@
         <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2403,19 +2406,19 @@
         <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>83</v>
@@ -2441,10 +2444,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2455,28 +2458,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2526,19 +2529,19 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>83</v>
@@ -2564,10 +2567,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2578,7 +2581,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>83</v>
@@ -2590,16 +2593,16 @@
         <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2625,13 +2628,13 @@
         <v>83</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>83</v>
@@ -2649,19 +2652,19 @@
         <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>83</v>
@@ -2687,21 +2690,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>83</v>
@@ -2713,16 +2716,16 @@
         <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2772,19 +2775,19 @@
         <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>83</v>
@@ -2796,7 +2799,7 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>83</v>
@@ -2810,14 +2813,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2836,16 +2839,16 @@
         <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2895,7 +2898,7 @@
         <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2919,7 +2922,7 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>83</v>
@@ -2933,14 +2936,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2959,16 +2962,16 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3018,7 +3021,7 @@
         <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3030,7 +3033,7 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>83</v>
@@ -3042,7 +3045,7 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3056,14 +3059,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3076,25 +3079,25 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>83</v>
@@ -3143,7 +3146,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3155,7 +3158,7 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>83</v>
@@ -3167,7 +3170,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3181,10 +3184,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3192,7 +3195,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>82</v>
@@ -3204,20 +3207,20 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3266,7 +3269,7 @@
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3278,40 +3281,40 @@
         <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3327,20 +3330,20 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3389,7 +3392,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3401,19 +3404,19 @@
         <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3427,14 +3430,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3450,19 +3453,19 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3512,7 +3515,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3524,19 +3527,19 @@
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3550,10 +3553,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3561,34 +3564,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3613,11 +3616,11 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
@@ -3635,48 +3638,48 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3684,13 +3687,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
@@ -3699,19 +3702,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3736,29 +3739,29 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3770,7 +3773,7 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
@@ -3782,40 +3785,40 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>
@@ -3824,19 +3827,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3846,7 +3849,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3861,13 +3864,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3885,7 +3888,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3897,7 +3900,7 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>83</v>
@@ -3909,10 +3912,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3923,45 +3926,45 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3986,13 +3989,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4010,37 +4013,37 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>83</v>
@@ -4048,10 +4051,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4062,7 +4065,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -4074,13 +4077,13 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4131,13 +4134,13 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>83</v>
@@ -4155,7 +4158,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4169,14 +4172,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4195,16 +4198,16 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4242,19 +4245,19 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4266,7 +4269,7 @@
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
@@ -4278,7 +4281,7 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4292,10 +4295,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4315,22 +4318,22 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4379,7 +4382,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4391,7 +4394,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4400,10 +4403,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4417,10 +4420,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4431,7 +4434,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4440,22 +4443,22 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4504,19 +4507,19 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4525,10 +4528,10 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4542,10 +4545,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4553,34 +4556,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4629,34 +4632,34 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4667,10 +4670,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4690,19 +4693,19 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4752,7 +4755,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4764,7 +4767,7 @@
         <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>83</v>
@@ -4773,13 +4776,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4790,21 +4793,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>83</v>
@@ -4813,22 +4816,22 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4877,34 +4880,34 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4915,45 +4918,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4990,44 +4993,44 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5038,47 +5041,47 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5127,48 +5130,48 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5179,7 +5182,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5188,19 +5191,19 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5250,19 +5253,19 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5271,13 +5274,13 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5288,10 +5291,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5311,20 +5314,20 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5373,7 +5376,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5385,36 +5388,36 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5425,31 +5428,31 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5486,47 +5489,47 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>83</v>
@@ -5534,13 +5537,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
@@ -5550,31 +5553,31 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5623,48 +5626,48 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5675,10 +5678,10 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
@@ -5687,19 +5690,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5724,11 +5727,11 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5746,19 +5749,19 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -5767,10 +5770,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5784,14 +5787,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5810,19 +5813,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5847,13 +5850,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5871,7 +5874,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5883,25 +5886,25 @@
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5909,10 +5912,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5935,19 +5938,19 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5996,7 +5999,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6008,7 +6011,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6017,10 +6020,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6034,10 +6037,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6048,7 +6051,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6060,16 +6063,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6095,13 +6098,13 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
@@ -6119,37 +6122,37 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>83</v>
@@ -6157,10 +6160,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6171,7 +6174,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6183,19 +6186,19 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6220,13 +6223,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6244,19 +6247,19 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6265,10 +6268,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6282,10 +6285,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6296,7 +6299,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6308,16 +6311,16 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6367,48 +6370,48 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6419,7 +6422,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6431,16 +6434,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6490,37 +6493,37 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -6528,10 +6531,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6554,19 +6557,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6615,7 +6618,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6627,7 +6630,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6636,10 +6639,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6653,10 +6656,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6667,7 +6670,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6679,13 +6682,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6736,13 +6739,13 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
@@ -6760,7 +6763,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6774,14 +6777,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6800,16 +6803,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6859,7 +6862,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6871,7 +6874,7 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -6883,7 +6886,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6897,14 +6900,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6917,25 +6920,25 @@
         <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6984,7 +6987,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6996,7 +6999,7 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -7008,7 +7011,7 @@
         <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7022,10 +7025,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7036,7 +7039,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7048,13 +7051,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7105,19 +7108,19 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7126,10 +7129,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7143,10 +7146,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7157,7 +7160,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7169,13 +7172,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7226,19 +7229,19 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7247,10 +7250,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7264,10 +7267,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7278,7 +7281,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7290,19 +7293,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7327,13 +7330,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7351,31 +7354,31 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7389,10 +7392,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7415,19 +7418,19 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7452,13 +7455,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7476,7 +7479,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7488,19 +7491,19 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7514,10 +7517,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7528,7 +7531,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7540,17 +7543,17 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7599,19 +7602,19 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7623,7 +7626,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7637,10 +7640,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7651,7 +7654,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7663,13 +7666,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7720,19 +7723,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7741,10 +7744,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7758,10 +7761,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7781,19 +7784,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7843,7 +7846,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7855,7 +7858,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7864,10 +7867,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7881,10 +7884,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7904,19 +7907,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7966,7 +7969,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7978,7 +7981,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -7987,10 +7990,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8004,10 +8007,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8027,22 +8030,22 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8091,7 +8094,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8103,7 +8106,7 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8112,10 +8115,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8129,10 +8132,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8143,7 +8146,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8155,13 +8158,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8212,13 +8215,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -8236,7 +8239,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8250,14 +8253,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8276,16 +8279,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8335,7 +8338,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8347,7 +8350,7 @@
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8359,7 +8362,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8373,14 +8376,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8393,25 +8396,25 @@
         <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8460,7 +8463,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8472,7 +8475,7 @@
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8484,7 +8487,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8498,10 +8501,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8509,10 +8512,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8521,22 +8524,22 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8561,13 +8564,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8585,34 +8588,34 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8623,10 +8626,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8637,7 +8640,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8646,22 +8649,22 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8710,37 +8713,37 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>83</v>
@@ -8748,10 +8751,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8762,7 +8765,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8774,19 +8777,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8811,13 +8814,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8835,19 +8838,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8856,10 +8859,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8873,14 +8876,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8899,19 +8902,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8936,13 +8939,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8960,7 +8963,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8972,25 +8975,25 @@
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>83</v>
@@ -8998,10 +9001,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9027,16 +9030,16 @@
         <v>83</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9085,7 +9088,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9097,7 +9100,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9106,10 +9109,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="493">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1-beta</t>
+    <t>0.1.2-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-05T09:18:04-06:00</t>
+    <t>2023-01-10T07:11:45-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -273,6 +273,10 @@
     <t/>
   </si>
   <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
     <t>Measurements and simple assertions</t>
   </si>
   <si>
@@ -609,7 +613,7 @@
     <t>FiveWs.status</t>
   </si>
   <si>
-    <t>final</t>
+    <t>`final`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -650,7 +654,7 @@
     <t>FiveWs.class</t>
   </si>
   <si>
-    <t>laboratory</t>
+    <t>`laboratory`</t>
   </si>
   <si>
     <t>Observation.category:Laboratory</t>
@@ -2103,16 +2107,16 @@
         <v>83</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2177,16 +2181,16 @@
         <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>83</v>
@@ -2195,15 +2199,15 @@
         <v>83</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2214,7 +2218,7 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>83</v>
@@ -2223,19 +2227,19 @@
         <v>83</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2285,13 +2289,13 @@
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>83</v>
@@ -2323,10 +2327,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2337,7 +2341,7 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>83</v>
@@ -2346,16 +2350,16 @@
         <v>83</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2406,19 +2410,19 @@
         <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>83</v>
@@ -2444,10 +2448,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2458,28 +2462,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2529,19 +2533,19 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>83</v>
@@ -2567,10 +2571,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2581,7 +2585,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>83</v>
@@ -2593,16 +2597,16 @@
         <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2628,13 +2632,13 @@
         <v>83</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>83</v>
@@ -2652,19 +2656,19 @@
         <v>83</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>83</v>
@@ -2690,21 +2694,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>83</v>
@@ -2716,16 +2720,16 @@
         <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2775,19 +2779,19 @@
         <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>83</v>
@@ -2799,7 +2803,7 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>83</v>
@@ -2813,14 +2817,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2839,16 +2843,16 @@
         <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2898,7 +2902,7 @@
         <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2922,7 +2926,7 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>83</v>
@@ -2936,14 +2940,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2962,16 +2966,16 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3021,7 +3025,7 @@
         <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3033,7 +3037,7 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>83</v>
@@ -3045,7 +3049,7 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3059,14 +3063,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3079,25 +3083,25 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>83</v>
@@ -3146,7 +3150,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3158,7 +3162,7 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>83</v>
@@ -3170,7 +3174,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3184,10 +3188,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3195,7 +3199,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>82</v>
@@ -3207,20 +3211,20 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3269,7 +3273,7 @@
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3281,40 +3285,40 @@
         <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3330,20 +3334,20 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3392,7 +3396,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3404,19 +3408,19 @@
         <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3430,14 +3434,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3453,19 +3457,19 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3515,7 +3519,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3527,19 +3531,19 @@
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3553,10 +3557,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3564,34 +3568,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3616,11 +3620,11 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
@@ -3638,48 +3642,48 @@
         <v>83</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3687,13 +3691,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
@@ -3702,19 +3706,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3739,29 +3743,29 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3773,7 +3777,7 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
@@ -3785,40 +3789,40 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>83</v>
@@ -3827,19 +3831,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3849,7 +3853,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3864,13 +3868,13 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
@@ -3888,7 +3892,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3900,7 +3904,7 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>83</v>
@@ -3912,10 +3916,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3926,45 +3930,45 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3989,13 +3993,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4013,37 +4017,37 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>83</v>
@@ -4051,10 +4055,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4065,7 +4069,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -4077,13 +4081,13 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4134,13 +4138,13 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>83</v>
@@ -4158,7 +4162,7 @@
         <v>83</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4172,14 +4176,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4198,16 +4202,16 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4245,19 +4249,19 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4269,7 +4273,7 @@
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
@@ -4281,7 +4285,7 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4295,10 +4299,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4318,22 +4322,22 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4382,7 +4386,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4394,7 +4398,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4403,10 +4407,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4420,10 +4424,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4434,7 +4438,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4443,22 +4447,22 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4507,19 +4511,19 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>83</v>
@@ -4528,10 +4532,10 @@
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4545,10 +4549,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4556,34 +4560,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4632,34 +4636,34 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4670,10 +4674,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4693,19 +4697,19 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4755,7 +4759,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4767,7 +4771,7 @@
         <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>83</v>
@@ -4776,13 +4780,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4793,21 +4797,21 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>83</v>
@@ -4816,22 +4820,22 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4880,34 +4884,34 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4918,45 +4922,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4993,44 +4997,44 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5041,47 +5045,47 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5130,48 +5134,48 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5182,7 +5186,7 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>83</v>
@@ -5191,19 +5195,19 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5253,19 +5257,19 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5274,13 +5278,13 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5291,10 +5295,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5314,20 +5318,20 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5376,7 +5380,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5388,36 +5392,36 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5428,31 +5432,31 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5489,47 +5493,47 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>83</v>
@@ -5537,13 +5541,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
@@ -5553,31 +5557,31 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5626,48 +5630,48 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5678,10 +5682,10 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
@@ -5690,19 +5694,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5727,11 +5731,11 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5749,19 +5753,19 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>83</v>
@@ -5770,10 +5774,10 @@
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5787,14 +5791,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5813,19 +5817,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5850,13 +5854,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5874,7 +5878,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5886,25 +5890,25 @@
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5912,10 +5916,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5938,19 +5942,19 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -5999,7 +6003,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6011,7 +6015,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6020,10 +6024,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6037,10 +6041,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6051,7 +6055,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6063,16 +6067,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6098,13 +6102,13 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
@@ -6122,37 +6126,37 @@
         <v>83</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>83</v>
@@ -6160,10 +6164,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6174,7 +6178,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6186,19 +6190,19 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6223,13 +6227,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6247,19 +6251,19 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>83</v>
@@ -6268,10 +6272,10 @@
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6285,10 +6289,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6299,7 +6303,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6311,16 +6315,16 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6370,48 +6374,48 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6422,7 +6426,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6434,16 +6438,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6493,37 +6497,37 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -6531,10 +6535,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6557,19 +6561,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6618,7 +6622,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6630,7 +6634,7 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
@@ -6639,10 +6643,10 @@
         <v>83</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6656,10 +6660,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6670,7 +6674,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6682,13 +6686,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6739,13 +6743,13 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>83</v>
@@ -6763,7 +6767,7 @@
         <v>83</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6777,14 +6781,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6803,16 +6807,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6862,7 +6866,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6874,7 +6878,7 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -6886,7 +6890,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6900,14 +6904,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6920,25 +6924,25 @@
         <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6987,7 +6991,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -6999,7 +7003,7 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -7011,7 +7015,7 @@
         <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7025,10 +7029,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7039,7 +7043,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7051,13 +7055,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7108,19 +7112,19 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>83</v>
@@ -7129,10 +7133,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7146,10 +7150,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7160,7 +7164,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7172,13 +7176,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7229,19 +7233,19 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>83</v>
@@ -7250,10 +7254,10 @@
         <v>83</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7267,10 +7271,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7281,7 +7285,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7293,19 +7297,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7330,13 +7334,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7354,31 +7358,31 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7392,10 +7396,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7418,19 +7422,19 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7455,13 +7459,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7479,7 +7483,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7491,19 +7495,19 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7517,10 +7521,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7531,7 +7535,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7543,17 +7547,17 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7602,19 +7606,19 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7626,7 +7630,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7640,10 +7644,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7654,7 +7658,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7666,13 +7670,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7723,19 +7727,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7744,10 +7748,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7761,10 +7765,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7784,19 +7788,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7846,7 +7850,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7858,7 +7862,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7867,10 +7871,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7884,10 +7888,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7907,19 +7911,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7969,7 +7973,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7981,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -7990,10 +7994,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8007,10 +8011,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8030,22 +8034,22 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8094,7 +8098,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8106,7 +8110,7 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8115,10 +8119,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8132,10 +8136,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8146,7 +8150,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8158,13 +8162,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8215,13 +8219,13 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>83</v>
@@ -8239,7 +8243,7 @@
         <v>83</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8253,14 +8257,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8279,16 +8283,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8338,7 +8342,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8350,7 +8354,7 @@
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8362,7 +8366,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8376,14 +8380,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8396,25 +8400,25 @@
         <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8463,7 +8467,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8475,7 +8479,7 @@
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8487,7 +8491,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8501,10 +8505,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8512,10 +8516,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8524,22 +8528,22 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8564,13 +8568,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8588,34 +8592,34 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8626,10 +8630,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8640,7 +8644,7 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>83</v>
@@ -8649,22 +8653,22 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8713,37 +8717,37 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>83</v>
@@ -8751,10 +8755,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8765,7 +8769,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8777,19 +8781,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8814,13 +8818,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8838,19 +8842,19 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8859,10 +8863,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8876,14 +8880,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8902,19 +8906,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8939,13 +8943,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8963,7 +8967,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8975,25 +8979,25 @@
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>83</v>
@@ -9001,10 +9005,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9027,19 +9031,19 @@
         <v>83</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9088,7 +9092,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9100,7 +9104,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9109,10 +9113,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T07:11:45-06:00</t>
+    <t>2023-01-10T08:15:50-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="492">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2-beta</t>
+    <t>0.1.3-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T08:15:50-06:00</t>
+    <t>2023-01-11T06:10:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -280,10 +280,7 @@
     <t>Measurements and simple assertions</t>
   </si>
   <si>
-    <t>This profile is  created to meet the 2015 Edition Common Clinical Data Set 'Laboratory test(s) and Laboratory value(s)/result(s)' requirements.</t>
-  </si>
-  <si>
-    <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
+    <t>\-</t>
   </si>
   <si>
     <t>Event</t>
@@ -684,7 +681,7 @@
     <t>The test that was performed.  A LOINC **SHALL** be used if the concept is present in LOINC.</t>
   </si>
   <si>
-    <t>The typical patterns for codes are:  1)  a LOINC code either as a  translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
+    <t>The typical patterns for codes are:  1)  a LOINC code either as a translation from a "local" code or as a primary code, or 2)  a local code only if no suitable LOINC exists,  or 3)  both the local and the LOINC translation.   Systems SHALL be capable of sending the local code if one exists.  When using LOINC , Use either the SHORTNAME or LONG_COMMON_NAME field for the display.</t>
   </si>
   <si>
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
@@ -921,7 +918,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-us-core-1:Datetime must be at least to day. {Observation.effectiveDateTime.exists() implies Observation.effectiveDateTime.toString().length() &gt;= 8}</t>
+us-core-1:Datetime must be at least to day. {$this is DateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -2116,7 +2113,7 @@
         <v>86</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2181,33 +2178,33 @@
         <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AL2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AM2" t="s" s="2">
+      <c r="AN2" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="AN2" t="s" s="2">
+      <c r="AO2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ2" t="s" s="2">
         <v>91</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP2" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ2" t="s" s="2">
-        <v>92</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2218,28 +2215,28 @@
         <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="M3" t="s" s="2">
+      <c r="N3" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="N3" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2289,13 +2286,13 @@
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>83</v>
@@ -2327,10 +2324,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2341,25 +2338,25 @@
         <v>81</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J4" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K4" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>103</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>104</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2410,19 +2407,19 @@
         <v>83</v>
       </c>
       <c r="AF4" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ4" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>83</v>
@@ -2448,10 +2445,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2462,28 +2459,28 @@
         <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H5" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I5" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="J5" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2533,19 +2530,19 @@
         <v>83</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>83</v>
@@ -2571,10 +2568,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2585,7 +2582,7 @@
         <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>83</v>
@@ -2597,16 +2594,16 @@
         <v>83</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="M6" t="s" s="2">
+      <c r="N6" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2632,43 +2629,43 @@
         <v>83</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Y6" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Z6" t="s" s="2">
+      <c r="AA6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="AA6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>83</v>
@@ -2694,21 +2691,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>83</v>
@@ -2720,16 +2717,16 @@
         <v>83</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L7" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>126</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>127</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2779,31 +2776,31 @@
         <v>83</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN7" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM7" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN7" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>83</v>
@@ -2817,14 +2814,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2843,16 +2840,16 @@
         <v>83</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2902,7 +2899,7 @@
         <v>83</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>81</v>
@@ -2926,7 +2923,7 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>83</v>
@@ -2940,14 +2937,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2966,16 +2963,16 @@
         <v>83</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3025,7 +3022,7 @@
         <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>81</v>
@@ -3037,7 +3034,7 @@
         <v>83</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>83</v>
@@ -3049,7 +3046,7 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>83</v>
@@ -3063,14 +3060,14 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3083,25 +3080,25 @@
         <v>83</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>83</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>83</v>
@@ -3150,7 +3147,7 @@
         <v>83</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3162,7 +3159,7 @@
         <v>83</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>83</v>
@@ -3174,7 +3171,7 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO10" t="s" s="2">
         <v>83</v>
@@ -3188,10 +3185,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3199,7 +3196,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>82</v>
@@ -3211,20 +3208,20 @@
         <v>83</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>83</v>
@@ -3273,7 +3270,7 @@
         <v>83</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3285,40 +3282,40 @@
         <v>83</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AN11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AO11" t="s" s="2">
+      <c r="AP11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ11" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3334,20 +3331,20 @@
         <v>83</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3396,7 +3393,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3408,19 +3405,19 @@
         <v>83</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="AL12" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>83</v>
@@ -3434,14 +3431,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3457,19 +3454,19 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3519,7 +3516,7 @@
         <v>83</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -3531,19 +3528,19 @@
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AL13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM13" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="AL13" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3557,10 +3554,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3568,34 +3565,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="I14" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H14" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>83</v>
@@ -3620,70 +3617,70 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Y14" s="2"/>
       <c r="Z14" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AA14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK14" t="s" s="2">
+      <c r="AL14" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AM14" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AN14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AO14" t="s" s="2">
+      <c r="AP14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>191</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3691,13 +3688,13 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
@@ -3706,19 +3703,19 @@
         <v>83</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3743,29 +3740,29 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z15" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
@@ -3777,7 +3774,7 @@
         <v>83</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>83</v>
@@ -3789,41 +3786,41 @@
         <v>83</v>
       </c>
       <c r="AN15" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO15" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="AO15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ15" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ15" t="s" s="2">
-        <v>204</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C16" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I16" t="s" s="2">
         <v>83</v>
       </c>
@@ -3831,19 +3828,19 @@
         <v>83</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3853,7 +3850,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3868,14 +3865,14 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Z16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AA16" t="s" s="2">
         <v>83</v>
       </c>
@@ -3892,7 +3889,7 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3904,7 +3901,7 @@
         <v>83</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>83</v>
@@ -3916,10 +3913,10 @@
         <v>83</v>
       </c>
       <c r="AN16" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3930,45 +3927,45 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H17" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="I17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J17" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H17" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J17" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3993,61 +3990,61 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AM17" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AO17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>83</v>
@@ -4055,10 +4052,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4069,7 +4066,7 @@
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>83</v>
@@ -4081,13 +4078,13 @@
         <v>83</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4138,31 +4135,31 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4176,14 +4173,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4202,16 +4199,16 @@
         <v>83</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4249,19 +4246,19 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AC19" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AC19" t="s" s="2">
+      <c r="AD19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>233</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4273,7 +4270,7 @@
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
@@ -4285,7 +4282,7 @@
         <v>83</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>83</v>
@@ -4299,10 +4296,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4322,22 +4319,22 @@
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N20" t="s" s="2">
+      <c r="O20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>83</v>
@@ -4386,7 +4383,7 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
@@ -4398,7 +4395,7 @@
         <v>83</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>83</v>
@@ -4407,10 +4404,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4424,10 +4421,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4438,31 +4435,31 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="N21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>247</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4511,31 +4508,31 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AG21" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4549,10 +4546,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4560,34 +4557,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H22" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="I22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>83</v>
@@ -4636,34 +4633,34 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4674,10 +4671,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4697,19 +4694,19 @@
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4759,7 +4756,7 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
@@ -4771,7 +4768,7 @@
         <v>83</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>83</v>
@@ -4780,13 +4777,13 @@
         <v>83</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
@@ -4797,45 +4794,45 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4884,34 +4881,34 @@
         <v>83</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AL24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>83</v>
@@ -4922,45 +4919,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4997,44 +4994,44 @@
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC25" s="2"/>
       <c r="AD25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AJ25" t="s" s="2">
+      <c r="AK25" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL25" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN25" t="s" s="2">
+      <c r="AO25" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5045,47 +5042,47 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="D26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H26" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5134,48 +5131,48 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AO26" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AP26" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5186,28 +5183,28 @@
         <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J27" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K27" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5257,19 +5254,19 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5278,13 +5275,13 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5295,10 +5292,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5318,20 +5315,20 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>306</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>307</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>83</v>
@@ -5380,7 +5377,7 @@
         <v>83</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5392,36 +5389,36 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="AO28" t="s" s="2">
+      <c r="AP28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ28" t="s" s="2">
         <v>312</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>313</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5432,31 +5429,31 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H29" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H29" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N29" t="s" s="2">
+      <c r="O29" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5493,47 +5490,47 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC29" s="2"/>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI29" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>83</v>
@@ -5541,13 +5538,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>83</v>
@@ -5557,31 +5554,31 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H30" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5630,48 +5627,48 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AK30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP30" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AO30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>325</v>
-      </c>
       <c r="AQ30" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5682,11 +5679,11 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H31" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H31" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="I31" t="s" s="2">
         <v>83</v>
       </c>
@@ -5694,19 +5691,19 @@
         <v>83</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M31" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5731,53 +5728,53 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y31" s="2"/>
       <c r="Z31" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI31" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI31" t="s" s="2">
+      <c r="AJ31" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>83</v>
@@ -5791,14 +5788,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5817,19 +5814,19 @@
         <v>83</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N32" t="s" s="2">
+      <c r="O32" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>83</v>
@@ -5854,14 +5851,14 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z32" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Z32" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5878,7 +5875,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5890,25 +5887,25 @@
         <v>83</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM32" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM32" t="s" s="2">
+      <c r="AN32" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5916,10 +5913,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5942,19 +5939,19 @@
         <v>83</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6003,7 +6000,7 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -6015,7 +6012,7 @@
         <v>83</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>83</v>
@@ -6024,10 +6021,10 @@
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>83</v>
@@ -6041,10 +6038,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6055,7 +6052,7 @@
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>83</v>
@@ -6067,16 +6064,16 @@
         <v>83</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6102,61 +6099,61 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Y34" t="s" s="2">
         <v>361</v>
       </c>
-      <c r="Y34" t="s" s="2">
+      <c r="Z34" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="Z34" t="s" s="2">
+      <c r="AA34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="AA34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP34" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>83</v>
@@ -6164,10 +6161,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6178,7 +6175,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>83</v>
@@ -6190,19 +6187,19 @@
         <v>83</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6227,55 +6224,55 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="Z35" t="s" s="2">
         <v>373</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AA35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>376</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>83</v>
@@ -6289,10 +6286,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6303,7 +6300,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>83</v>
@@ -6315,16 +6312,16 @@
         <v>83</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>380</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>381</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6374,48 +6371,48 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>382</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AO36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP36" t="s" s="2">
+      <c r="AQ36" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6426,7 +6423,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6438,16 +6435,16 @@
         <v>83</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6497,37 +6494,37 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>83</v>
@@ -6535,10 +6532,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6561,19 +6558,19 @@
         <v>83</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6622,7 +6619,7 @@
         <v>83</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -6634,19 +6631,19 @@
         <v>83</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
@@ -6660,10 +6657,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6674,7 +6671,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>83</v>
@@ -6686,13 +6683,13 @@
         <v>83</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6743,31 +6740,31 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
@@ -6781,14 +6778,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6807,16 +6804,16 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L40" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M40" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6866,7 +6863,7 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6878,7 +6875,7 @@
         <v>83</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -6890,7 +6887,7 @@
         <v>83</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6904,14 +6901,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6924,25 +6921,25 @@
         <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M41" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="N41" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6991,7 +6988,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7003,7 +7000,7 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
@@ -7015,7 +7012,7 @@
         <v>83</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
@@ -7029,10 +7026,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7043,7 +7040,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7055,13 +7052,13 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7112,31 +7109,31 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AJ42" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7150,10 +7147,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7164,7 +7161,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7176,13 +7173,13 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>420</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7233,31 +7230,31 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>417</v>
-      </c>
       <c r="AN43" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
@@ -7271,10 +7268,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7285,7 +7282,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7297,19 +7294,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7334,55 +7331,55 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Z44" t="s" s="2">
+      <c r="AA44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AA44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AM44" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AN44" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7396,10 +7393,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7422,19 +7419,19 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>83</v>
@@ -7459,14 +7456,14 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y45" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z45" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z45" t="s" s="2">
-        <v>438</v>
-      </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7483,7 +7480,7 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
@@ -7495,19 +7492,19 @@
         <v>83</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AM45" t="s" s="2">
-        <v>431</v>
-      </c>
       <c r="AN45" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
@@ -7521,10 +7518,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7535,7 +7532,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7547,17 +7544,17 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>83</v>
@@ -7606,19 +7603,19 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>83</v>
@@ -7630,7 +7627,7 @@
         <v>83</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
@@ -7644,10 +7641,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7658,7 +7655,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7670,13 +7667,13 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L47" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M47" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7727,19 +7724,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7748,10 +7745,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7765,10 +7762,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7788,19 +7785,19 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7850,7 +7847,7 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7862,7 +7859,7 @@
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7871,10 +7868,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AN48" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7888,10 +7885,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7911,19 +7908,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7973,7 +7970,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7985,7 +7982,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -7994,10 +7991,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8011,10 +8008,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8034,22 +8031,22 @@
         <v>83</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="M50" t="s" s="2">
+      <c r="N50" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="N50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8098,7 +8095,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8110,7 +8107,7 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8119,10 +8116,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN50" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8136,10 +8133,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8150,7 +8147,7 @@
         <v>81</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>83</v>
@@ -8162,13 +8159,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8219,31 +8216,31 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8257,14 +8254,14 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8283,16 +8280,16 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L52" t="s" s="2">
-        <v>141</v>
-      </c>
       <c r="M52" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8342,7 +8339,7 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
@@ -8354,7 +8351,7 @@
         <v>83</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8366,7 +8363,7 @@
         <v>83</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8380,14 +8377,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8400,25 +8397,25 @@
         <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>410</v>
-      </c>
       <c r="N53" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8467,7 +8464,7 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8479,7 +8476,7 @@
         <v>83</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>83</v>
@@ -8491,7 +8488,7 @@
         <v>83</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8505,10 +8502,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8516,34 +8513,34 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J54" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J54" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>473</v>
       </c>
-      <c r="M54" t="s" s="2">
+      <c r="N54" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="N54" t="s" s="2">
-        <v>475</v>
-      </c>
       <c r="O54" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8568,58 +8565,58 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="Y54" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>477</v>
-      </c>
       <c r="AM54" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8630,10 +8627,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8644,31 +8641,31 @@
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J55" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J55" t="s" s="2">
-        <v>95</v>
-      </c>
       <c r="K55" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="O55" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8717,37 +8714,37 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AO55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP55" t="s" s="2">
         <v>324</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP55" t="s" s="2">
-        <v>325</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>83</v>
@@ -8755,10 +8752,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8769,7 +8766,7 @@
         <v>81</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>83</v>
@@ -8781,19 +8778,19 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L56" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="M56" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="N56" t="s" s="2">
-        <v>486</v>
-      </c>
       <c r="O56" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>83</v>
@@ -8818,43 +8815,43 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y56" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI56" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="Z56" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>488</v>
-      </c>
       <c r="AJ56" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>83</v>
@@ -8863,10 +8860,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8880,14 +8877,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8906,19 +8903,19 @@
         <v>83</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>83</v>
@@ -8943,14 +8940,14 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y57" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Z57" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Z57" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8967,7 +8964,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8979,25 +8976,25 @@
         <v>83</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>345</v>
       </c>
-      <c r="AM57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP57" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP57" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>83</v>
@@ -9005,10 +9002,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9034,16 +9031,16 @@
         <v>84</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M58" t="s" s="2">
-        <v>492</v>
-      </c>
       <c r="N58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="O58" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>83</v>
@@ -9092,7 +9089,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9104,7 +9101,7 @@
         <v>83</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>83</v>
@@ -9113,10 +9110,10 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="AN58" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T06:10:13-06:00</t>
+    <t>2023-02-02T16:50:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.3-beta</t>
+    <t>0.1.4-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T16:50:30-06:00</t>
+    <t>2023-02-03T09:54:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T09:54:41-06:00</t>
+    <t>2023-02-21T15:24:44-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4-beta</t>
+    <t>0.1.5-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-21T15:24:44-06:00</t>
+    <t>2023-02-23T08:24:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:24:10-06:00</t>
+    <t>2023-02-23T08:47:22-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-23T08:47:22-06:00</t>
+    <t>2023-03-05T12:38:40-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$58</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$67</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="556">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.5-beta</t>
+    <t>0.1.6-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T12:38:40-06:00</t>
+    <t>2023-03-23T11:34:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -501,6 +501,13 @@
     <t>Allows observations to be distinguished and referenced.</t>
   </si>
   <si>
+    <t xml:space="preserve">pattern:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -513,7 +520,237 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>LabTestTO.id</t>
+    <t>{StationNbr} and {LabTestTO.id}</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid</t>
+  </si>
+  <si>
+    <t>TOid</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.id</t>
+  </si>
+  <si>
+    <t>Observation.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.extension</t>
+  </si>
+  <si>
+    <t>Observation.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.use</t>
+  </si>
+  <si>
+    <t>Observation.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.type</t>
+  </si>
+  <si>
+    <t>Observation.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.system</t>
+  </si>
+  <si>
+    <t>Observation.identifier.system</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.349.4.{stationNbr}</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.value</t>
+  </si>
+  <si>
+    <t>Observation.identifier.value</t>
+  </si>
+  <si>
+    <t>`LabTestTO` | `.` | {LabTestTO.id}</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.period</t>
+  </si>
+  <si>
+    <t>Observation.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>Observation.identifier:TOid.assigner</t>
+  </si>
+  <si>
+    <t>Observation.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
     <t>Observation.basedOn</t>
@@ -589,9 +826,6 @@
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
@@ -614,10 +848,6 @@
   </si>
   <si>
     <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Classification of  type of observation</t>
@@ -640,9 +870,6 @@
   <si>
     <t xml:space="preserve">pattern:$this}
 </t>
-  </si>
-  <si>
-    <t>open</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
@@ -687,9 +914,6 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
     <t>LOINC codes</t>
   </si>
   <si>
@@ -717,36 +941,7 @@
     <t>Observation.code.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Observation.code.coding</t>
@@ -1892,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ58"/>
+  <dimension ref="A1:AQ67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1920,12 +2115,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.51953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
@@ -3258,16 +3453,14 @@
         <v>83</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>150</v>
@@ -3285,44 +3478,46 @@
         <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="D12" t="s" s="2">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>83</v>
@@ -3334,17 +3529,17 @@
         <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>83</v>
@@ -3393,7 +3588,7 @@
         <v>83</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3408,19 +3603,19 @@
         <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>83</v>
+        <v>160</v>
       </c>
       <c r="AP12" t="s" s="2">
         <v>83</v>
@@ -3431,21 +3626,21 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>83</v>
@@ -3454,20 +3649,18 @@
         <v>83</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>174</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>83</v>
@@ -3522,25 +3715,25 @@
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>175</v>
+        <v>83</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>176</v>
+        <v>83</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>83</v>
@@ -3554,46 +3747,44 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>83</v>
       </c>
@@ -3617,70 +3808,72 @@
         <v>83</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>184</v>
+        <v>83</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>185</v>
+        <v>83</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>186</v>
+        <v>83</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>187</v>
+        <v>83</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>189</v>
+        <v>83</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>190</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3691,31 +3884,31 @@
         <v>93</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="I15" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>113</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>83</v>
@@ -3725,7 +3918,7 @@
         <v>83</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="T15" t="s" s="2">
         <v>83</v>
@@ -3740,35 +3933,37 @@
         <v>83</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AC15" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>83</v>
@@ -3783,64 +3978,62 @@
         <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>203</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>205</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
         <v>83</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J16" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="I16" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J16" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="K16" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>83</v>
@@ -3850,7 +4043,7 @@
         <v>83</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>206</v>
+        <v>83</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>83</v>
@@ -3865,7 +4058,7 @@
         <v>83</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="Y16" t="s" s="2">
         <v>197</v>
@@ -3889,13 +4082,13 @@
         <v>83</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>83</v>
@@ -3910,13 +4103,13 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>83</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -3927,24 +4120,24 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>208</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>83</v>
@@ -3953,19 +4146,19 @@
         <v>94</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>192</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>83</v>
@@ -3978,7 +4171,7 @@
         <v>83</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>83</v>
+        <v>207</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>83</v>
@@ -3990,13 +4183,13 @@
         <v>83</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>214</v>
+        <v>83</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>215</v>
+        <v>83</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>83</v>
@@ -4014,10 +4207,10 @@
         <v>83</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>93</v>
@@ -4029,22 +4222,22 @@
         <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>83</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>221</v>
+        <v>83</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>83</v>
@@ -4052,10 +4245,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4075,18 +4268,20 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N18" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>83</v>
@@ -4099,7 +4294,7 @@
         <v>83</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>83</v>
+        <v>216</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>83</v>
@@ -4135,7 +4330,7 @@
         <v>83</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
@@ -4147,7 +4342,7 @@
         <v>83</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>83</v>
@@ -4156,10 +4351,10 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>83</v>
+        <v>218</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>83</v>
@@ -4173,21 +4368,21 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>83</v>
@@ -4196,20 +4391,18 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>140</v>
+        <v>223</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>83</v>
@@ -4246,31 +4439,31 @@
         <v>83</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>230</v>
+        <v>83</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>231</v>
+        <v>83</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>83</v>
@@ -4279,7 +4472,7 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>227</v>
@@ -4296,10 +4489,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4310,7 +4503,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>83</v>
@@ -4322,20 +4515,18 @@
         <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>83</v>
       </c>
@@ -4383,13 +4574,13 @@
         <v>83</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>83</v>
@@ -4404,10 +4595,10 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>83</v>
@@ -4421,21 +4612,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>83</v>
+        <v>238</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4447,19 +4638,17 @@
         <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>245</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>83</v>
@@ -4508,13 +4697,13 @@
         <v>83</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>83</v>
@@ -4523,16 +4712,16 @@
         <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>83</v>
+        <v>243</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>83</v>
@@ -4546,24 +4735,24 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>83</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>83</v>
@@ -4572,20 +4761,18 @@
         <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>83</v>
       </c>
@@ -4633,13 +4820,13 @@
         <v>83</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>83</v>
@@ -4648,19 +4835,19 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>259</v>
+        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4671,10 +4858,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4682,33 +4869,35 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="O23" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>83</v>
       </c>
@@ -4732,13 +4921,11 @@
         <v>83</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>83</v>
@@ -4756,13 +4943,13 @@
         <v>83</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>83</v>
@@ -4771,68 +4958,68 @@
         <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>83</v>
+        <v>261</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>83</v>
+        <v>262</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>263</v>
       </c>
       <c r="AN23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AO23" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>259</v>
-      </c>
       <c r="AP23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>83</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>267</v>
+        <v>83</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>83</v>
@@ -4857,37 +5044,35 @@
         <v>83</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="AC24" s="2"/>
       <c r="AD24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>83</v>
@@ -4896,13 +5081,13 @@
         <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>273</v>
+        <v>83</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>275</v>
@@ -4914,23 +5099,25 @@
         <v>83</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="D25" t="s" s="2">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>93</v>
@@ -4942,22 +5129,22 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>83</v>
@@ -4967,7 +5154,7 @@
         <v>83</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>83</v>
+        <v>280</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>83</v>
@@ -4982,56 +5169,58 @@
         <v>83</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>83</v>
+        <v>272</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>83</v>
+        <v>273</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AC25" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>287</v>
+        <v>83</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>288</v>
+        <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>83</v>
@@ -5042,20 +5231,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>93</v>
@@ -5070,19 +5257,19 @@
         <v>94</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>83</v>
@@ -5107,13 +5294,13 @@
         <v>83</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>83</v>
+        <v>287</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>83</v>
+        <v>288</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>83</v>
@@ -5131,40 +5318,40 @@
         <v>83</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>93</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>285</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>286</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>83</v>
+        <v>290</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>83</v>
+        <v>294</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>294</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" hidden="true">
@@ -5192,20 +5379,18 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>296</v>
+        <v>166</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>297</v>
+        <v>167</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>299</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>83</v>
@@ -5254,7 +5439,7 @@
         <v>83</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>295</v>
+        <v>169</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5266,7 +5451,7 @@
         <v>83</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>83</v>
@@ -5275,13 +5460,13 @@
         <v>83</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>300</v>
+        <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>301</v>
+        <v>170</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>302</v>
+        <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5292,14 +5477,14 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5315,21 +5500,21 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>304</v>
+        <v>139</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>307</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>83</v>
       </c>
@@ -5365,19 +5550,19 @@
         <v>83</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>83</v>
+        <v>174</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5389,36 +5574,36 @@
         <v>83</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>308</v>
+        <v>83</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>309</v>
+        <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>310</v>
+        <v>170</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>311</v>
+        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>312</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5429,10 +5614,10 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
@@ -5441,19 +5626,19 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>83</v>
@@ -5490,47 +5675,49 @@
         <v>83</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AC29" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="AD29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>200</v>
+        <v>83</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>83</v>
@@ -5538,14 +5725,12 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>325</v>
+        <v>306</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>326</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>83</v>
       </c>
@@ -5557,7 +5742,7 @@
         <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>
@@ -5566,19 +5751,19 @@
         <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>83</v>
@@ -5627,7 +5812,7 @@
         <v>83</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -5636,39 +5821,39 @@
         <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>319</v>
+        <v>83</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>320</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>321</v>
+        <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>327</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5676,7 +5861,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>93</v>
@@ -5688,22 +5873,22 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>83</v>
@@ -5728,11 +5913,13 @@
         <v>83</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="Y31" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>83</v>
+      </c>
       <c r="Z31" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>83</v>
@@ -5750,7 +5937,7 @@
         <v>83</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5759,25 +5946,25 @@
         <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>334</v>
+        <v>83</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>83</v>
+        <v>320</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>136</v>
+        <v>321</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>83</v>
@@ -5788,14 +5975,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5811,23 +5998,21 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>192</v>
+        <v>325</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>83</v>
       </c>
@@ -5851,13 +6036,13 @@
         <v>83</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>83</v>
@@ -5875,7 +6060,7 @@
         <v>83</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5893,19 +6078,19 @@
         <v>83</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>345</v>
+        <v>291</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>83</v>
+        <v>323</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>347</v>
+        <v>83</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -5913,21 +6098,21 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>83</v>
+        <v>331</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -5936,22 +6121,22 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>83</v>
@@ -6000,13 +6185,13 @@
         <v>83</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>83</v>
@@ -6015,19 +6200,19 @@
         <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>83</v>
+        <v>337</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>83</v>
+        <v>340</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>83</v>
@@ -6038,14 +6223,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6055,27 +6240,29 @@
         <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>192</v>
+        <v>343</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>83</v>
       </c>
@@ -6099,31 +6286,29 @@
         <v>83</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>361</v>
+        <v>83</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>362</v>
+        <v>83</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -6132,28 +6317,28 @@
         <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>363</v>
+        <v>83</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>366</v>
+        <v>83</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>83</v>
@@ -6161,14 +6346,16 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>341</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="D35" t="s" s="2">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6178,28 +6365,28 @@
         <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>192</v>
+        <v>357</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>371</v>
+        <v>347</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>83</v>
@@ -6224,13 +6411,13 @@
         <v>83</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>372</v>
+        <v>83</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>373</v>
+        <v>83</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>83</v>
@@ -6248,7 +6435,7 @@
         <v>83</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
@@ -6257,39 +6444,39 @@
         <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>349</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>83</v>
+        <v>351</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>374</v>
+        <v>352</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>375</v>
+        <v>353</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>83</v>
+        <v>354</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>83</v>
+        <v>358</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6309,19 +6496,19 @@
         <v>83</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>377</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6371,7 +6558,7 @@
         <v>83</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>376</v>
+        <v>359</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6389,30 +6576,30 @@
         <v>83</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>381</v>
+        <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>83</v>
+        <v>366</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>384</v>
+        <v>83</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>385</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6423,7 +6610,7 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>83</v>
@@ -6432,21 +6619,21 @@
         <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>387</v>
+        <v>368</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>83</v>
       </c>
@@ -6494,13 +6681,13 @@
         <v>83</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>83</v>
@@ -6509,33 +6696,33 @@
         <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>83</v>
+        <v>372</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>391</v>
+        <v>83</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>394</v>
+        <v>83</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>83</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6546,31 +6733,31 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>83</v>
@@ -6607,49 +6794,47 @@
         <v>83</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AQ38" t="s" s="2">
         <v>83</v>
@@ -6657,12 +6842,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6674,25 +6861,29 @@
         <v>93</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>224</v>
+        <v>379</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>83</v>
       </c>
@@ -6740,7 +6931,7 @@
         <v>83</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>226</v>
+        <v>377</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
@@ -6749,53 +6940,53 @@
         <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>83</v>
+        <v>383</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>384</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>83</v>
+        <v>385</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>83</v>
+        <v>386</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>227</v>
+        <v>387</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>83</v>
+        <v>388</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>83</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>405</v>
+        <v>392</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>83</v>
@@ -6804,18 +6995,20 @@
         <v>83</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>140</v>
+        <v>393</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>229</v>
+        <v>394</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>83</v>
       </c>
@@ -6839,13 +7032,11 @@
         <v>83</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>83</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="Y40" s="2"/>
       <c r="Z40" t="s" s="2">
-        <v>83</v>
+        <v>397</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>83</v>
@@ -6863,19 +7054,19 @@
         <v>83</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>232</v>
+        <v>392</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>83</v>
+        <v>398</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>83</v>
@@ -6884,10 +7075,10 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>227</v>
+        <v>399</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>83</v>
@@ -6901,14 +7092,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6921,25 +7112,25 @@
         <v>83</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>142</v>
+        <v>404</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>148</v>
+        <v>405</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>83</v>
@@ -6964,13 +7155,13 @@
         <v>83</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>83</v>
+        <v>406</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>83</v>
+        <v>407</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>83</v>
@@ -6988,7 +7179,7 @@
         <v>83</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
@@ -7000,25 +7191,25 @@
         <v>83</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>83</v>
+        <v>408</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>83</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>136</v>
+        <v>410</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>83</v>
+        <v>411</v>
       </c>
       <c r="AQ41" t="s" s="2">
         <v>83</v>
@@ -7026,10 +7217,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7040,7 +7231,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7052,16 +7243,20 @@
         <v>83</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>83</v>
       </c>
@@ -7109,16 +7304,16 @@
         <v>83</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>105</v>
@@ -7130,10 +7325,10 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>83</v>
@@ -7147,10 +7342,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7173,15 +7368,17 @@
         <v>83</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>412</v>
+        <v>191</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>422</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>83</v>
@@ -7206,13 +7403,13 @@
         <v>83</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>83</v>
+        <v>424</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>83</v>
+        <v>425</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>83</v>
+        <v>426</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>83</v>
@@ -7230,7 +7427,7 @@
         <v>83</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
@@ -7239,7 +7436,7 @@
         <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>415</v>
+        <v>83</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>105</v>
@@ -7248,19 +7445,19 @@
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>83</v>
+        <v>427</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>83</v>
+        <v>430</v>
       </c>
       <c r="AQ43" t="s" s="2">
         <v>83</v>
@@ -7268,10 +7465,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7294,19 +7491,19 @@
         <v>83</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>83</v>
@@ -7331,13 +7528,13 @@
         <v>83</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>117</v>
+        <v>424</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>83</v>
@@ -7355,7 +7552,7 @@
         <v>83</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
@@ -7373,13 +7570,13 @@
         <v>83</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>429</v>
+        <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>346</v>
+        <v>439</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>83</v>
@@ -7393,10 +7590,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7407,7 +7604,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>83</v>
@@ -7419,20 +7616,18 @@
         <v>83</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>192</v>
+        <v>441</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>435</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>83</v>
       </c>
@@ -7456,13 +7651,13 @@
         <v>83</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>436</v>
+        <v>83</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>437</v>
+        <v>83</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>83</v>
@@ -7480,13 +7675,13 @@
         <v>83</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>83</v>
@@ -7498,30 +7693,30 @@
         <v>83</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>346</v>
+        <v>447</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>83</v>
+        <v>448</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>83</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7544,18 +7739,18 @@
         <v>83</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>442</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>83</v>
       </c>
@@ -7603,7 +7798,7 @@
         <v>83</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7621,19 +7816,19 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>83</v>
+        <v>455</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>83</v>
+        <v>456</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>83</v>
+        <v>458</v>
       </c>
       <c r="AQ46" t="s" s="2">
         <v>83</v>
@@ -7641,10 +7836,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7655,7 +7850,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7667,16 +7862,20 @@
         <v>83</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>223</v>
+        <v>460</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>462</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>464</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>83</v>
       </c>
@@ -7724,19 +7923,19 @@
         <v>83</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>105</v>
+        <v>465</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>83</v>
@@ -7745,10 +7944,10 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>416</v>
+        <v>466</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>83</v>
@@ -7762,10 +7961,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>448</v>
+        <v>468</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7776,7 +7975,7 @@
         <v>81</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>83</v>
@@ -7785,20 +7984,18 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>449</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>450</v>
+        <v>167</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>452</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>83</v>
@@ -7847,19 +8044,19 @@
         <v>83</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>448</v>
+        <v>169</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>83</v>
@@ -7868,10 +8065,10 @@
         <v>83</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>454</v>
+        <v>170</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>83</v>
@@ -7885,14 +8082,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7908,19 +8105,19 @@
         <v>83</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>456</v>
+        <v>139</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>457</v>
+        <v>140</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>458</v>
+        <v>173</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>459</v>
+        <v>142</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7970,7 +8167,7 @@
         <v>83</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>455</v>
+        <v>176</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7982,7 +8179,7 @@
         <v>83</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>83</v>
@@ -7991,10 +8188,10 @@
         <v>83</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>453</v>
+        <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>460</v>
+        <v>170</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>83</v>
@@ -8008,14 +8205,14 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>83</v>
+        <v>471</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
@@ -8028,25 +8225,25 @@
         <v>83</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>396</v>
+        <v>139</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>464</v>
+        <v>142</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>465</v>
+        <v>148</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>83</v>
@@ -8095,7 +8292,7 @@
         <v>83</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -8107,7 +8304,7 @@
         <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>83</v>
@@ -8116,10 +8313,10 @@
         <v>83</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>467</v>
+        <v>136</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>83</v>
@@ -8133,10 +8330,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8159,13 +8356,13 @@
         <v>83</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>223</v>
+        <v>476</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>224</v>
+        <v>477</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>225</v>
+        <v>478</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8216,7 +8413,7 @@
         <v>83</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8225,10 +8422,10 @@
         <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>83</v>
@@ -8237,10 +8434,10 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>83</v>
@@ -8254,21 +8451,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>138</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>83</v>
@@ -8280,17 +8477,15 @@
         <v>83</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>139</v>
+        <v>476</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>140</v>
+        <v>483</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>83</v>
@@ -8339,19 +8534,19 @@
         <v>83</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>232</v>
+        <v>482</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>83</v>
@@ -8360,10 +8555,10 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>227</v>
+        <v>485</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>83</v>
@@ -8377,45 +8572,45 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>470</v>
+        <v>486</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>407</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>83</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>139</v>
+        <v>191</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>408</v>
+        <v>487</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>142</v>
+        <v>489</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>148</v>
+        <v>490</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>83</v>
@@ -8440,13 +8635,13 @@
         <v>83</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>83</v>
+        <v>491</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>83</v>
+        <v>492</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>83</v>
@@ -8464,31 +8659,31 @@
         <v>83</v>
       </c>
       <c r="AF53" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AN53" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>83</v>
@@ -8502,10 +8697,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8513,10 +8708,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>83</v>
@@ -8525,22 +8720,22 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>212</v>
+        <v>499</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>83</v>
@@ -8565,13 +8760,13 @@
         <v>83</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>360</v>
+        <v>424</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>475</v>
+        <v>500</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>215</v>
+        <v>501</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>83</v>
@@ -8589,13 +8784,13 @@
         <v>83</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>495</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>83</v>
@@ -8607,16 +8802,16 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>218</v>
+        <v>494</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>219</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>220</v>
+        <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8627,10 +8822,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8650,22 +8845,20 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>314</v>
+        <v>503</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>318</v>
+        <v>506</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>83</v>
@@ -8714,7 +8907,7 @@
         <v>83</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>477</v>
+        <v>502</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
@@ -8732,19 +8925,19 @@
         <v>83</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>481</v>
+        <v>83</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>322</v>
+        <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>323</v>
+        <v>507</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>324</v>
+        <v>83</v>
       </c>
       <c r="AQ55" t="s" s="2">
         <v>83</v>
@@ -8752,10 +8945,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8778,20 +8971,16 @@
         <v>83</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>510</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>83</v>
       </c>
@@ -8815,13 +9004,13 @@
         <v>83</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>486</v>
+        <v>83</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>333</v>
+        <v>83</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>83</v>
@@ -8839,7 +9028,7 @@
         <v>83</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8848,7 +9037,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>487</v>
+        <v>83</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -8860,10 +9049,10 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>136</v>
+        <v>480</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>335</v>
+        <v>511</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>83</v>
@@ -8877,14 +9066,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>337</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8900,23 +9089,21 @@
         <v>83</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>192</v>
+        <v>513</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>514</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>339</v>
+        <v>515</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>341</v>
-      </c>
+        <v>516</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>83</v>
       </c>
@@ -8940,13 +9127,13 @@
         <v>83</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>342</v>
+        <v>83</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>343</v>
+        <v>83</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>83</v>
@@ -8964,7 +9151,7 @@
         <v>83</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8982,19 +9169,19 @@
         <v>83</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>344</v>
+        <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>345</v>
+        <v>517</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>346</v>
+        <v>518</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>347</v>
+        <v>83</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>83</v>
@@ -9002,10 +9189,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9025,23 +9212,21 @@
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="O58" t="s" s="2">
-        <v>400</v>
-      </c>
+        <v>523</v>
+      </c>
+      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>83</v>
       </c>
@@ -9089,7 +9274,7 @@
         <v>83</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>489</v>
+        <v>519</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -9110,23 +9295,1142 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AP58" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AQ58" t="s" s="2">
+      <c r="N66" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="P67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ58">
+  <autoFilter ref="A1:AQ67">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9136,7 +10440,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI57">
+  <conditionalFormatting sqref="A2:AI66">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6-beta</t>
+    <t>0.1.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T11:34:13-05:00</t>
+    <t>2023-03-29T16:54:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-29T16:54:48-05:00</t>
+    <t>2023-03-30T12:22:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-30T12:22:18-05:00</t>
+    <t>2023-03-31T07:50:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-31T07:50:38-05:00</t>
+    <t>2023-04-11T08:45:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1397,7 +1397,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.7-beta</t>
+    <t>0.1.8-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T08:45:33-05:00</t>
+    <t>2023-04-12T10:49:54-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -938,6 +938,9 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
+    <t>LabTestTO.loinc</t>
+  </si>
+  <si>
     <t>Observation.code.id</t>
   </si>
   <si>
@@ -951,9 +954,6 @@
 </t>
   </si>
   <si>
-    <t>Code defined by a terminology system</t>
-  </si>
-  <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
@@ -975,7 +975,7 @@
     <t>Observation.code.text</t>
   </si>
   <si>
-    <t>Plain text representation of the concept</t>
+    <t>LabTestTO.name</t>
   </si>
   <si>
     <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
@@ -5351,15 +5351,15 @@
         <v>294</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>83</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5477,10 +5477,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5600,10 +5600,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5614,10 +5614,10 @@
         <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>83</v>
@@ -5626,10 +5626,10 @@
         <v>94</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>300</v>
@@ -5736,13 +5736,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8-beta</t>
+    <t>0.1.9-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T10:49:54-05:00</t>
+    <t>2023-04-14T09:56:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.9-beta</t>
+    <t>0.1.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-14T09:56:36-05:00</t>
+    <t>2023-04-17T18:54:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T18:54:15-05:00</t>
+    <t>2023-04-17T19:11:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.10-beta</t>
+    <t>0.1.11-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-17T19:11:15-05:00</t>
+    <t>2023-04-24T08:03:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.11-beta</t>
+    <t>0.1.12-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-24T08:03:17-05:00</t>
+    <t>2023-05-01T08:16:19-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.12-beta</t>
+    <t>0.1.13-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-01T08:16:19-05:00</t>
+    <t>2023-05-02T08:13:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.13-beta</t>
+    <t>0.1.14-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-02T08:13:48-05:00</t>
+    <t>2023-05-04T14:24:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.14-beta</t>
+    <t>0.1.15-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T14:24:58-05:00</t>
+    <t>2023-06-07T11:47:17-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T11:38:47-05:00</t>
+    <t>2023-06-13T14:37:26-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T14:37:26-05:00</t>
+    <t>2023-06-13T16:30:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-13T16:30:05-05:00</t>
+    <t>2023-06-16T14:48:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.16-beta</t>
+    <t>0.1.17-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-16T14:48:21-05:00</t>
+    <t>2023-07-13T09:22:36-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.17-beta</t>
+    <t>0.1.18-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T09:22:36-05:00</t>
+    <t>2023-07-19T13:17:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-19T13:17:04-05:00</t>
+    <t>2023-07-21T16:23:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-21T16:23:00-05:00</t>
+    <t>2023-08-03T12:49:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T12:49:33-05:00</t>
+    <t>2023-08-17T15:11:45-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.18-beta</t>
+    <t>0.1.19-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-17T15:11:45-05:00</t>
+    <t>2023-08-18T06:56:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T06:56:10-05:00</t>
+    <t>2023-08-18T07:55:35-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.19-beta</t>
+    <t>0.1.20-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-18T07:55:35-05:00</t>
+    <t>2023-08-22T11:16:10-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T11:16:10-05:00</t>
+    <t>2023-08-22T12:58:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -27,13 +27,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PHR/StructureDefinition/VA.MHV.PHR.labTest</t>
+    <t>https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.labTest</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.20-beta</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T12:58:52-05:00</t>
+    <t>2023-08-22T16:36:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>John Moehrke (himself)</t>
+    <t>VA Digital Services</t>
   </si>
   <si>
     <t>Contact</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2633" uniqueCount="515">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T16:36:15-05:00</t>
+    <t>2023-08-24T09:48:15-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -154,6 +154,10 @@
     <t>\-</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -536,6 +540,10 @@
   </si>
   <si>
     <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+TOid-startswithoid:ID system must start with urn:oid:2.16.840.1.113883.4.349.4. The next would be the {stationNbr} {value.startsWith('urn:oid:2.16.840.1.113883.4.349.4.')}</t>
   </si>
   <si>
     <t>CX.4 / EI-2-4</t>
@@ -2109,19 +2117,19 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>40</v>
@@ -2130,15 +2138,15 @@
         <v>40</v>
       </c>
       <c r="AQ1" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2149,7 +2157,7 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>40</v>
@@ -2158,19 +2166,19 @@
         <v>40</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2220,13 +2228,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -2258,10 +2266,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2272,7 +2280,7 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>40</v>
@@ -2281,16 +2289,16 @@
         <v>40</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2341,19 +2349,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -2379,10 +2387,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2393,28 +2401,28 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N4" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
@@ -2464,19 +2472,19 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>40</v>
@@ -2502,10 +2510,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2516,7 +2524,7 @@
         <v>38</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>40</v>
@@ -2528,16 +2536,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2563,13 +2571,13 @@
         <v>40</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>40</v>
@@ -2587,19 +2595,19 @@
         <v>40</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -2625,21 +2633,21 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>40</v>
@@ -2651,16 +2659,16 @@
         <v>40</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2710,19 +2718,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -2734,7 +2742,7 @@
         <v>40</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>40</v>
@@ -2748,14 +2756,14 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2774,16 +2782,16 @@
         <v>40</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2833,7 +2841,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
@@ -2857,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO7" t="s" s="2">
         <v>40</v>
@@ -2871,14 +2879,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2897,16 +2905,16 @@
         <v>40</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2956,7 +2964,7 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
@@ -2968,7 +2976,7 @@
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -2980,7 +2988,7 @@
         <v>40</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO8" t="s" s="2">
         <v>40</v>
@@ -2994,14 +3002,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3014,25 +3022,25 @@
         <v>40</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P9" t="s" s="2">
         <v>40</v>
@@ -3081,7 +3089,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -3093,7 +3101,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -3105,7 +3113,7 @@
         <v>40</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>40</v>
@@ -3119,10 +3127,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3130,7 +3138,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -3142,20 +3150,20 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>40</v>
@@ -3192,17 +3200,17 @@
         <v>40</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC10" s="2"/>
       <c r="AD10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -3214,49 +3222,49 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>40</v>
@@ -3265,20 +3273,20 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>40</v>
@@ -3327,7 +3335,7 @@
         <v>40</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3339,22 +3347,22 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>40</v>
@@ -3365,10 +3373,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3379,7 +3387,7 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
@@ -3391,13 +3399,13 @@
         <v>40</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3448,13 +3456,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
@@ -3472,7 +3480,7 @@
         <v>40</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>40</v>
@@ -3486,14 +3494,14 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3512,16 +3520,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3559,19 +3567,19 @@
         <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
@@ -3583,7 +3591,7 @@
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -3595,7 +3603,7 @@
         <v>40</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO13" t="s" s="2">
         <v>40</v>
@@ -3609,10 +3617,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3620,34 +3628,34 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>40</v>
@@ -3657,7 +3665,7 @@
         <v>40</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>40</v>
@@ -3672,13 +3680,13 @@
         <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>40</v>
@@ -3696,19 +3704,19 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>40</v>
@@ -3717,10 +3725,10 @@
         <v>40</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>40</v>
@@ -3734,10 +3742,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3748,7 +3756,7 @@
         <v>38</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -3757,22 +3765,22 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>40</v>
@@ -3797,13 +3805,13 @@
         <v>40</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>40</v>
@@ -3821,19 +3829,19 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>40</v>
@@ -3842,10 +3850,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>40</v>
@@ -3859,10 +3867,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3873,7 +3881,7 @@
         <v>38</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3882,22 +3890,22 @@
         <v>40</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>40</v>
@@ -3910,7 +3918,7 @@
         <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U16" t="s" s="2">
         <v>40</v>
@@ -3946,19 +3954,19 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>62</v>
+        <v>167</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -3967,10 +3975,10 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>40</v>
@@ -3984,10 +3992,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3998,7 +4006,7 @@
         <v>38</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -4007,19 +4015,19 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -4033,7 +4041,7 @@
         <v>40</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>40</v>
@@ -4069,19 +4077,19 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -4090,10 +4098,10 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>40</v>
@@ -4107,10 +4115,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4121,7 +4129,7 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -4130,16 +4138,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4190,19 +4198,19 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>40</v>
@@ -4211,10 +4219,10 @@
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>40</v>
@@ -4228,10 +4236,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4242,7 +4250,7 @@
         <v>38</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
@@ -4251,19 +4259,19 @@
         <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4313,19 +4321,19 @@
         <v>40</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>40</v>
@@ -4334,10 +4342,10 @@
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>40</v>
@@ -4351,14 +4359,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4374,20 +4382,20 @@
         <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>40</v>
@@ -4436,7 +4444,7 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
@@ -4448,19 +4456,19 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>40</v>
@@ -4474,14 +4482,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4497,19 +4505,19 @@
         <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4559,7 +4567,7 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>38</v>
@@ -4571,19 +4579,19 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>40</v>
@@ -4597,10 +4605,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4608,34 +4616,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>40</v>
@@ -4660,11 +4668,11 @@
         <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>40</v>
@@ -4682,48 +4690,48 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4731,13 +4739,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>40</v>
@@ -4746,19 +4754,19 @@
         <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>40</v>
@@ -4783,29 +4791,29 @@
         <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4817,7 +4825,7 @@
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>40</v>
@@ -4829,40 +4837,40 @@
         <v>40</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>40</v>
@@ -4871,19 +4879,19 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>40</v>
@@ -4893,7 +4901,7 @@
         <v>40</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>40</v>
@@ -4908,13 +4916,13 @@
         <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>40</v>
@@ -4932,7 +4940,7 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
@@ -4944,7 +4952,7 @@
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>40</v>
@@ -4956,10 +4964,10 @@
         <v>40</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>40</v>
@@ -4970,45 +4978,45 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>40</v>
@@ -5033,13 +5041,13 @@
         <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>40</v>
@@ -5057,48 +5065,48 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5109,7 +5117,7 @@
         <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
@@ -5121,13 +5129,13 @@
         <v>40</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5178,13 +5186,13 @@
         <v>40</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>40</v>
@@ -5202,7 +5210,7 @@
         <v>40</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>40</v>
@@ -5216,14 +5224,14 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -5242,16 +5250,16 @@
         <v>40</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5289,19 +5297,19 @@
         <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
@@ -5313,7 +5321,7 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>40</v>
@@ -5325,7 +5333,7 @@
         <v>40</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>40</v>
@@ -5339,10 +5347,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5353,31 +5361,31 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>40</v>
@@ -5426,7 +5434,7 @@
         <v>40</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
@@ -5438,7 +5446,7 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>40</v>
@@ -5447,10 +5455,10 @@
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>40</v>
@@ -5464,10 +5472,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5475,34 +5483,34 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>40</v>
@@ -5551,19 +5559,19 @@
         <v>40</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>40</v>
@@ -5572,10 +5580,10 @@
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>40</v>
@@ -5589,10 +5597,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5600,34 +5608,34 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>40</v>
@@ -5676,34 +5684,34 @@
         <v>40</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>40</v>
@@ -5714,10 +5722,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5737,19 +5745,19 @@
         <v>40</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5799,7 +5807,7 @@
         <v>40</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5811,7 +5819,7 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>40</v>
@@ -5820,13 +5828,13 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>40</v>
@@ -5837,21 +5845,21 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>40</v>
@@ -5860,22 +5868,22 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>40</v>
@@ -5924,34 +5932,34 @@
         <v>40</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>40</v>
@@ -5962,45 +5970,45 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>40</v>
@@ -6037,44 +6045,44 @@
         <v>40</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AC33" s="2"/>
       <c r="AD33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>40</v>
@@ -6085,47 +6093,47 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>40</v>
@@ -6174,48 +6182,48 @@
         <v>40</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6226,7 +6234,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -6235,19 +6243,19 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6297,19 +6305,19 @@
         <v>40</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>40</v>
@@ -6318,13 +6326,13 @@
         <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>40</v>
@@ -6335,10 +6343,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6358,20 +6366,20 @@
         <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>40</v>
@@ -6420,7 +6428,7 @@
         <v>40</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6432,36 +6440,36 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6472,31 +6480,31 @@
         <v>38</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>40</v>
@@ -6533,47 +6541,47 @@
         <v>40</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>40</v>
@@ -6581,13 +6589,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>40</v>
@@ -6597,31 +6605,31 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>40</v>
@@ -6670,48 +6678,48 @@
         <v>40</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6722,10 +6730,10 @@
         <v>38</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>40</v>
@@ -6734,19 +6742,19 @@
         <v>40</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>40</v>
@@ -6771,11 +6779,11 @@
         <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y39" s="2"/>
       <c r="Z39" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>40</v>
@@ -6793,19 +6801,19 @@
         <v>40</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>40</v>
@@ -6814,10 +6822,10 @@
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>40</v>
@@ -6831,14 +6839,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6857,19 +6865,19 @@
         <v>40</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>40</v>
@@ -6894,13 +6902,13 @@
         <v>40</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>40</v>
@@ -6918,7 +6926,7 @@
         <v>40</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6930,25 +6938,25 @@
         <v>40</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>40</v>
@@ -6956,10 +6964,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6982,19 +6990,19 @@
         <v>40</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>40</v>
@@ -7043,7 +7051,7 @@
         <v>40</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>38</v>
@@ -7055,7 +7063,7 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>40</v>
@@ -7064,10 +7072,10 @@
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>40</v>
@@ -7081,10 +7089,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7095,7 +7103,7 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>40</v>
@@ -7107,16 +7115,16 @@
         <v>40</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7142,13 +7150,13 @@
         <v>40</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>40</v>
@@ -7166,37 +7174,37 @@
         <v>40</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AQ42" t="s" s="2">
         <v>40</v>
@@ -7204,10 +7212,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7218,7 +7226,7 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>40</v>
@@ -7230,19 +7238,19 @@
         <v>40</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>40</v>
@@ -7267,13 +7275,13 @@
         <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>40</v>
@@ -7291,19 +7299,19 @@
         <v>40</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>40</v>
@@ -7312,10 +7320,10 @@
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>40</v>
@@ -7329,10 +7337,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7343,7 +7351,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
@@ -7355,16 +7363,16 @@
         <v>40</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7414,48 +7422,48 @@
         <v>40</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7466,7 +7474,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -7478,16 +7486,16 @@
         <v>40</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7537,37 +7545,37 @@
         <v>40</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>40</v>
@@ -7575,10 +7583,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7601,19 +7609,19 @@
         <v>40</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>40</v>
@@ -7662,7 +7670,7 @@
         <v>40</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7674,7 +7682,7 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>40</v>
@@ -7683,10 +7691,10 @@
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>40</v>
@@ -7700,10 +7708,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7714,7 +7722,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>40</v>
@@ -7726,13 +7734,13 @@
         <v>40</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7783,13 +7791,13 @@
         <v>40</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>40</v>
@@ -7807,7 +7815,7 @@
         <v>40</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>40</v>
@@ -7821,14 +7829,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7847,16 +7855,16 @@
         <v>40</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7906,7 +7914,7 @@
         <v>40</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7918,7 +7926,7 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>40</v>
@@ -7930,7 +7938,7 @@
         <v>40</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>40</v>
@@ -7944,14 +7952,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7964,25 +7972,25 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>40</v>
@@ -8031,7 +8039,7 @@
         <v>40</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
@@ -8043,7 +8051,7 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>40</v>
@@ -8055,7 +8063,7 @@
         <v>40</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>40</v>
@@ -8069,10 +8077,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8083,7 +8091,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>40</v>
@@ -8095,13 +8103,13 @@
         <v>40</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8152,19 +8160,19 @@
         <v>40</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>40</v>
@@ -8173,10 +8181,10 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>40</v>
@@ -8190,10 +8198,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8204,7 +8212,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -8216,13 +8224,13 @@
         <v>40</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8273,31 +8281,31 @@
         <v>40</v>
       </c>
       <c r="AF51" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="AG51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>437</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>40</v>
@@ -8311,10 +8319,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8325,7 +8333,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>40</v>
@@ -8337,19 +8345,19 @@
         <v>40</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>40</v>
@@ -8374,13 +8382,13 @@
         <v>40</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>40</v>
@@ -8398,31 +8406,31 @@
         <v>40</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>40</v>
@@ -8436,10 +8444,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8462,19 +8470,19 @@
         <v>40</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>40</v>
@@ -8499,13 +8507,13 @@
         <v>40</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>40</v>
@@ -8523,7 +8531,7 @@
         <v>40</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8535,19 +8543,19 @@
         <v>40</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>40</v>
@@ -8561,10 +8569,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8575,7 +8583,7 @@
         <v>38</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -8587,17 +8595,17 @@
         <v>40</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>40</v>
@@ -8646,19 +8654,19 @@
         <v>40</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>40</v>
@@ -8670,7 +8678,7 @@
         <v>40</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>40</v>
@@ -8684,10 +8692,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8698,7 +8706,7 @@
         <v>38</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
@@ -8710,13 +8718,13 @@
         <v>40</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8767,19 +8775,19 @@
         <v>40</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>40</v>
@@ -8788,10 +8796,10 @@
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>40</v>
@@ -8805,10 +8813,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8828,19 +8836,19 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8890,7 +8898,7 @@
         <v>40</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>38</v>
@@ -8902,7 +8910,7 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>40</v>
@@ -8911,10 +8919,10 @@
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>40</v>
@@ -8928,10 +8936,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8951,19 +8959,19 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9013,7 +9021,7 @@
         <v>40</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>38</v>
@@ -9025,7 +9033,7 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>40</v>
@@ -9034,10 +9042,10 @@
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>40</v>
@@ -9051,10 +9059,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9074,22 +9082,22 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>40</v>
@@ -9138,7 +9146,7 @@
         <v>40</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>38</v>
@@ -9150,7 +9158,7 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>40</v>
@@ -9159,10 +9167,10 @@
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>40</v>
@@ -9176,10 +9184,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9190,7 +9198,7 @@
         <v>38</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -9202,13 +9210,13 @@
         <v>40</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9259,13 +9267,13 @@
         <v>40</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>40</v>
@@ -9283,7 +9291,7 @@
         <v>40</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>40</v>
@@ -9297,14 +9305,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9323,16 +9331,16 @@
         <v>40</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9382,7 +9390,7 @@
         <v>40</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>38</v>
@@ -9394,7 +9402,7 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>40</v>
@@ -9406,7 +9414,7 @@
         <v>40</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>40</v>
@@ -9420,14 +9428,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9440,25 +9448,25 @@
         <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>40</v>
@@ -9507,7 +9515,7 @@
         <v>40</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>38</v>
@@ -9519,7 +9527,7 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>40</v>
@@ -9531,7 +9539,7 @@
         <v>40</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>40</v>
@@ -9545,10 +9553,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9556,10 +9564,10 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>40</v>
@@ -9568,22 +9576,22 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>40</v>
@@ -9608,13 +9616,13 @@
         <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>40</v>
@@ -9632,34 +9640,34 @@
         <v>40</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>40</v>
@@ -9670,10 +9678,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9684,7 +9692,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -9693,22 +9701,22 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>40</v>
@@ -9757,37 +9765,37 @@
         <v>40</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP63" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>40</v>
@@ -9795,10 +9803,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9809,7 +9817,7 @@
         <v>38</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>40</v>
@@ -9821,19 +9829,19 @@
         <v>40</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>40</v>
@@ -9858,13 +9866,13 @@
         <v>40</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>40</v>
@@ -9882,19 +9890,19 @@
         <v>40</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>40</v>
@@ -9903,10 +9911,10 @@
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>40</v>
@@ -9920,14 +9928,14 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9946,19 +9954,19 @@
         <v>40</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>40</v>
@@ -9983,13 +9991,13 @@
         <v>40</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>40</v>
@@ -10007,7 +10015,7 @@
         <v>40</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>38</v>
@@ -10019,25 +10027,25 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AP65" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AQ65" t="s" s="2">
         <v>40</v>
@@ -10045,10 +10053,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10074,16 +10082,16 @@
         <v>41</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>40</v>
@@ -10132,7 +10140,7 @@
         <v>40</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>38</v>
@@ -10144,7 +10152,7 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>40</v>
@@ -10153,10 +10161,10 @@
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-24T09:48:15-05:00</t>
+    <t>2023-08-25T12:12:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T12:12:31-05:00</t>
+    <t>2023-08-25T14:41:58-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.2</t>
+    <t>0.2.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-25T14:41:58-05:00</t>
+    <t>2023-08-31T15:33:32-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.3</t>
+    <t>0.2.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-31T15:33:32-05:00</t>
+    <t>2023-09-22T11:03:56-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.4</t>
+    <t>0.2.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-22T11:03:56-05:00</t>
+    <t>2023-10-06T11:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.5</t>
+    <t>0.2.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-06T11:35:14-05:00</t>
+    <t>2023-10-20T10:16:33-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7</t>
+    <t>0.2.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T14:14:41-06:00</t>
+    <t>2023-11-30T14:00:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8</t>
+    <t>0.2.9</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-30T14:00:30-06:00</t>
+    <t>2023-12-15T17:23:12-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9</t>
+    <t>0.2.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:23:12-06:00</t>
+    <t>2023-12-22T09:54:24-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.10</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T09:54:24-06:00</t>
+    <t>2024-01-19T11:04:10-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>0.3.2-ci</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T11:04:10-06:00</t>
+    <t>2024-01-29T11:03:46-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2-ci</t>
+    <t>0.3.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:03:46-06:00</t>
+    <t>2024-01-29T11:44:59-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.2</t>
+    <t>0.3.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-29T11:44:59-06:00</t>
+    <t>2024-02-26T14:52:47-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.3</t>
+    <t>0.3.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-26T14:52:47-06:00</t>
+    <t>2024-03-18T14:58:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.4</t>
+    <t>0.3.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-18T14:58:21-05:00</t>
+    <t>2024-03-29T15:35:14-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,8 +85,7 @@
   </si>
   <si>
     <t>A profile showing how LabTestTO and LabResultTO will be exposed using FHIR API to MyHealtheVet PHR.
-- This profile is based on US-Core Lab
-- sometimes a contained Specimen is needed</t>
+- This profile is based on US-Core Lab</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -239,6 +238,9 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: VIA to mhv-fhir-phr</t>
+  </si>
+  <si>
     <t>Mapping: Workflow Pattern</t>
   </si>
   <si>
@@ -255,9 +257,6 @@
   </si>
   <si>
     <t>Mapping: SNOMED CT Attribute Binding</t>
-  </si>
-  <si>
-    <t>Mapping: VIA to mhv-fhir-phr</t>
   </si>
   <si>
     <t>Vital Signs
@@ -287,6 +286,9 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
+    <t>LabTestTO / LabResultTO</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -297,9 +299,6 @@
   </si>
   <si>
     <t>Observation[classCode=OBS, moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>LabTestTO / LabResultTO</t>
   </si>
   <si>
     <t>Observation.id</t>
@@ -512,6 +511,9 @@
     <t>open</t>
   </si>
   <si>
+    <t>{StationNbr} and {LabTestTO.id}</t>
+  </si>
+  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -522,9 +524,6 @@
   </si>
   <si>
     <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>{StationNbr} and {LabTestTO.id}</t>
   </si>
   <si>
     <t>Observation.identifier:TOid</t>
@@ -837,6 +836,9 @@
     <t>http://hl7.org/fhir/ValueSet/observation-status</t>
   </si>
   <si>
+    <t>`final`</t>
+  </si>
+  <si>
     <t>Event.status</t>
   </si>
   <si>
@@ -850,9 +852,6 @@
   </si>
   <si>
     <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>`final`</t>
   </si>
   <si>
     <t>Observation.category</t>
@@ -880,13 +879,13 @@
 </t>
   </si>
   <si>
+    <t>`laboratory`</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>`laboratory`</t>
   </si>
   <si>
     <t>Observation.category:Laboratory</t>
@@ -946,9 +945,6 @@
     <t>116680003 |Is a|</t>
   </si>
   <si>
-    <t>LabTestTO.loinc</t>
-  </si>
-  <si>
     <t>Observation.code.id</t>
   </si>
   <si>
@@ -962,6 +958,9 @@
 </t>
   </si>
   <si>
+    <t>LabTestTO.loinc</t>
+  </si>
+  <si>
     <t>A reference to a code defined by a terminology system.</t>
   </si>
   <si>
@@ -1177,7 +1176,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.organization)
 </t>
   </si>
   <si>
@@ -1190,6 +1189,9 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
+    <t>GetOrganization(LabResultTO.labSiteId)</t>
+  </si>
+  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -1200,9 +1202,6 @@
   </si>
   <si>
     <t>FiveWs.actor</t>
-  </si>
-  <si>
-    <t>GetOrganization(LabResultTO.labSiteId)</t>
   </si>
   <si>
     <t>Observation.value[x]</t>
@@ -1405,7 +1404,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://department-of-veterans-affairs.github.io/mhv-fhir-phr-mapping/StructureDefinition/VA.MHV.PHR.LabSpecimen)
 </t>
   </si>
   <si>
@@ -1418,6 +1417,9 @@
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
+    <t>Specimen (LabTestTO.specimen.[LabSpecimenTO])</t>
+  </si>
+  <si>
     <t>&lt; 123038009 |Specimen|</t>
   </si>
   <si>
@@ -1428,9 +1430,6 @@
   </si>
   <si>
     <t>704319004 |Inherent in|</t>
-  </si>
-  <si>
-    <t>Contained Specimen (LabTestTO.specimen.[LabSpecimenTO])</t>
   </si>
   <si>
     <t>Observation.device</t>
@@ -2114,7 +2113,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="118.7265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2139,13 +2138,13 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="239.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="103.87890625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="37.7109375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="56.0703125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="46.3828125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="103.87890625" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="37.7109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2393,13 +2392,13 @@
         <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AP2" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" hidden="true">
@@ -3003,10 +3002,10 @@
         <v>83</v>
       </c>
       <c r="AN7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO7" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP7" t="s" s="2">
         <v>83</v>
@@ -3126,10 +3125,10 @@
         <v>83</v>
       </c>
       <c r="AN8" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO8" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP8" t="s" s="2">
         <v>83</v>
@@ -3249,10 +3248,10 @@
         <v>83</v>
       </c>
       <c r="AN9" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP9" t="s" s="2">
         <v>83</v>
@@ -3374,10 +3373,10 @@
         <v>83</v>
       </c>
       <c r="AN10" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP10" t="s" s="2">
         <v>83</v>
@@ -3489,10 +3488,10 @@
         <v>158</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>160</v>
@@ -3501,10 +3500,10 @@
         <v>161</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>162</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" hidden="true">
@@ -3611,13 +3610,13 @@
         <v>106</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>158</v>
+        <v>83</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>83</v>
+        <v>159</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>160</v>
@@ -3626,7 +3625,7 @@
         <v>161</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="AQ12" t="s" s="2">
         <v>83</v>
@@ -3741,10 +3740,10 @@
         <v>83</v>
       </c>
       <c r="AN13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO13" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>83</v>
@@ -3864,10 +3863,10 @@
         <v>83</v>
       </c>
       <c r="AN14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>83</v>
@@ -3986,13 +3985,13 @@
         <v>83</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>83</v>
@@ -4111,13 +4110,13 @@
         <v>83</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>83</v>
@@ -4236,13 +4235,13 @@
         <v>83</v>
       </c>
       <c r="AM17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN17" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>83</v>
@@ -4359,13 +4358,13 @@
         <v>83</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>83</v>
@@ -4480,13 +4479,13 @@
         <v>83</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AN19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>83</v>
@@ -4603,13 +4602,13 @@
         <v>83</v>
       </c>
       <c r="AM20" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="AN20" t="s" s="2">
+      <c r="AO20" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>83</v>
@@ -4634,7 +4633,7 @@
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>83</v>
@@ -4720,19 +4719,19 @@
         <v>106</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM21" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN21" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN21" t="s" s="2">
+      <c r="AO21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>83</v>
@@ -4757,7 +4756,7 @@
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>83</v>
@@ -4843,19 +4842,19 @@
         <v>106</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL22" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM22" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>83</v>
@@ -4981,10 +4980,10 @@
         <v>267</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>83</v>
+        <v>268</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>268</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" hidden="true">
@@ -5089,7 +5088,7 @@
         <v>106</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>83</v>
+        <v>277</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>83</v>
@@ -5098,16 +5097,16 @@
         <v>83</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>279</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" hidden="true">
@@ -5225,13 +5224,13 @@
         <v>83</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>277</v>
+        <v>83</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>278</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>83</v>
+        <v>279</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>83</v>
@@ -5341,33 +5340,33 @@
         <v>106</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>297</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5471,10 +5470,10 @@
         <v>83</v>
       </c>
       <c r="AN27" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>83</v>
@@ -5485,10 +5484,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5594,10 +5593,10 @@
         <v>83</v>
       </c>
       <c r="AN28" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>83</v>
@@ -5608,10 +5607,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5634,10 +5633,10 @@
         <v>95</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="M29" t="s" s="2">
         <v>302</v>
@@ -5710,19 +5709,19 @@
         <v>106</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>83</v>
@@ -5835,19 +5834,19 @@
         <v>106</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>83</v>
+        <v>309</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM30" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>83</v>
@@ -5960,22 +5959,22 @@
         <v>106</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AO31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ31" t="s" s="2">
         <v>83</v>
@@ -5997,7 +5996,7 @@
         <v>81</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>83</v>
@@ -6089,16 +6088,16 @@
         <v>83</v>
       </c>
       <c r="AM32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN32" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN32" t="s" s="2">
+      <c r="AO32" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AO32" t="s" s="2">
+      <c r="AP32" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>83</v>
@@ -6120,7 +6119,7 @@
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>83</v>
@@ -6208,22 +6207,22 @@
         <v>106</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AO33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ33" t="s" s="2">
         <v>83</v>
@@ -6331,22 +6330,22 @@
         <v>352</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL34" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN34" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AO34" t="s" s="2">
+      <c r="AP34" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ34" t="s" s="2">
         <v>83</v>
@@ -6458,25 +6457,25 @@
         <v>352</v>
       </c>
       <c r="AK35" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AL35" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AM35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="AO35" t="s" s="2">
+      <c r="AP35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AP35" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AQ35" t="s" s="2">
-        <v>360</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" hidden="true">
@@ -6581,22 +6580,22 @@
         <v>106</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>83</v>
+        <v>360</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AM36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>83</v>
@@ -6707,10 +6706,10 @@
         <v>374</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>83</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>375</v>
+        <v>83</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>376</v>
@@ -6719,10 +6718,10 @@
         <v>377</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>83</v>
+        <v>378</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>378</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" hidden="true">
@@ -6830,22 +6829,22 @@
         <v>83</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AN38" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AO38" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ38" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="39" hidden="true">
@@ -6954,25 +6953,25 @@
         <v>386</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>83</v>
+        <v>393</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AO39" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>393</v>
       </c>
     </row>
     <row r="40" hidden="true">
@@ -6991,7 +6990,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>95</v>
@@ -7083,13 +7082,13 @@
         <v>83</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AN40" t="s" s="2">
+      <c r="AO40" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>83</v>
@@ -7114,7 +7113,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>83</v>
@@ -7205,22 +7204,22 @@
         <v>83</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO41" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP41" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="42" hidden="true">
@@ -7239,7 +7238,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>83</v>
@@ -7333,13 +7332,13 @@
         <v>83</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>83</v>
@@ -7364,7 +7363,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>83</v>
@@ -7453,22 +7452,22 @@
         <v>83</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="AO43" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP43" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="44" hidden="true">
@@ -7487,7 +7486,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>83</v>
@@ -7581,13 +7580,13 @@
         <v>83</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>83</v>
@@ -7615,7 +7614,7 @@
         <v>94</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>83</v>
@@ -7698,10 +7697,10 @@
         <v>106</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>83</v>
+        <v>447</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>447</v>
+        <v>83</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>448</v>
@@ -7710,10 +7709,10 @@
         <v>449</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>83</v>
+        <v>450</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>450</v>
+        <v>83</v>
       </c>
       <c r="AQ45" t="s" s="2">
         <v>451</v>
@@ -7735,7 +7734,7 @@
         <v>81</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>83</v>
@@ -7824,22 +7823,22 @@
         <v>83</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="AM46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="AN46" t="s" s="2">
+      <c r="AO46" t="s" s="2">
         <v>459</v>
       </c>
-      <c r="AO46" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP46" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7858,7 +7857,7 @@
         <v>81</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>83</v>
@@ -7952,13 +7951,13 @@
         <v>83</v>
       </c>
       <c r="AM47" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AN47" t="s" s="2">
+      <c r="AO47" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>83</v>
@@ -8076,10 +8075,10 @@
         <v>83</v>
       </c>
       <c r="AN48" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>83</v>
@@ -8199,10 +8198,10 @@
         <v>83</v>
       </c>
       <c r="AN49" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO49" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>83</v>
@@ -8324,10 +8323,10 @@
         <v>83</v>
       </c>
       <c r="AN50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>83</v>
@@ -8442,13 +8441,13 @@
         <v>83</v>
       </c>
       <c r="AM51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AN51" t="s" s="2">
+      <c r="AO51" t="s" s="2">
         <v>483</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>83</v>
@@ -8563,13 +8562,13 @@
         <v>83</v>
       </c>
       <c r="AM52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN52" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AN52" t="s" s="2">
+      <c r="AO52" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>83</v>
@@ -8685,16 +8684,16 @@
         <v>83</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>83</v>
@@ -8810,16 +8809,16 @@
         <v>83</v>
       </c>
       <c r="AL54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM54" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="AM54" t="s" s="2">
+      <c r="AN54" t="s" s="2">
         <v>496</v>
       </c>
-      <c r="AN54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>83</v>
@@ -8939,10 +8938,10 @@
         <v>83</v>
       </c>
       <c r="AN55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO55" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AO55" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>83</v>
@@ -9057,13 +9056,13 @@
         <v>83</v>
       </c>
       <c r="AM56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN56" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="AO56" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>83</v>
@@ -9088,7 +9087,7 @@
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>83</v>
@@ -9180,13 +9179,13 @@
         <v>83</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN57" t="s" s="2">
+      <c r="AO57" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="AO57" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>83</v>
@@ -9211,7 +9210,7 @@
         <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>83</v>
@@ -9303,13 +9302,13 @@
         <v>83</v>
       </c>
       <c r="AM58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN58" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="AN58" t="s" s="2">
+      <c r="AO58" t="s" s="2">
         <v>526</v>
-      </c>
-      <c r="AO58" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>83</v>
@@ -9334,7 +9333,7 @@
         <v>81</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>83</v>
@@ -9428,13 +9427,13 @@
         <v>83</v>
       </c>
       <c r="AM59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>532</v>
       </c>
-      <c r="AN59" t="s" s="2">
+      <c r="AO59" t="s" s="2">
         <v>533</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>83</v>
@@ -9552,10 +9551,10 @@
         <v>83</v>
       </c>
       <c r="AN60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>83</v>
@@ -9675,10 +9674,10 @@
         <v>83</v>
       </c>
       <c r="AN61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO61" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>83</v>
@@ -9800,10 +9799,10 @@
         <v>83</v>
       </c>
       <c r="AN62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AO62" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>83</v>
@@ -9919,19 +9918,19 @@
         <v>83</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="AM63" t="s" s="2">
+      <c r="AN63" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AN63" t="s" s="2">
+      <c r="AO63" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AO63" t="s" s="2">
+      <c r="AP63" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AP63" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AQ63" t="s" s="2">
         <v>83</v>
@@ -10044,22 +10043,22 @@
         <v>83</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>547</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AO64" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="65" hidden="true">
@@ -10172,13 +10171,13 @@
         <v>83</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="AN65" t="s" s="2">
+      <c r="AO65" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>83</v>
@@ -10294,22 +10293,22 @@
         <v>83</v>
       </c>
       <c r="AL66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="AM66" t="s" s="2">
+      <c r="AN66" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="AN66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="AO66" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="AP66" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>413</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="67" hidden="true">
@@ -10340,7 +10339,7 @@
         <v>83</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>556</v>
@@ -10422,13 +10421,13 @@
         <v>83</v>
       </c>
       <c r="AM67" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AN67" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AN67" t="s" s="2">
+      <c r="AO67" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AO67" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>83</v>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.6</t>
+    <t>0.3.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-18T11:51:10-05:00</t>
+    <t>2024-06-10T12:47:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1195,7 +1195,7 @@
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
-    <t>{DiagnosticReport.performer}</t>
+    <t>GetPractitioner(DiagnosticReport.performer)</t>
   </si>
   <si>
     <t>Event.performer.actor</t>
@@ -2144,7 +2144,7 @@
     <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="30.4140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="41.3359375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="239.703125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
+++ b/docs/StructureDefinition-VA.MHV.PHR.labTest.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.7</t>
+    <t>0.3.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T12:47:52-05:00</t>
+    <t>2024-07-12T09:49:05-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
